--- a/public/excel_file/ImportStudentSample.xlsx
+++ b/public/excel_file/ImportStudentSample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buivanhuy/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B79F162-53EF-9E47-9EB8-A7C525CEFF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5821BD76-468F-2347-AE8E-DE3509F8EEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="18440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>MSSV</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Nam</t>
   </si>
   <si>
-    <t>huy423210063@gmail.com</t>
-  </si>
-  <si>
     <t>Ứng dụng phần mền</t>
   </si>
   <si>
@@ -70,82 +67,10 @@
     <t>password123</t>
   </si>
   <si>
-    <t>Trần Thị Bình</t>
-  </si>
-  <si>
-    <t>Nữ</t>
-  </si>
-  <si>
-    <t>binh424210002@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> binh@2003</t>
-  </si>
-  <si>
-    <t>Thiết kế website</t>
-  </si>
-  <si>
-    <t>Lê Hùng Cường</t>
-  </si>
-  <si>
-    <t>cuong424210003@gmail.com</t>
-  </si>
-  <si>
-    <t>Quản trị Dịch vụ Du lịch và Lữ hành</t>
-  </si>
-  <si>
-    <t>Phạm Ngọc Dung</t>
-  </si>
-  <si>
-    <t>dung424210004@gmail.com</t>
-  </si>
-  <si>
-    <t>Hoàng Minh Giang</t>
-  </si>
-  <si>
-    <t>giang424210005@gmail.com</t>
-  </si>
-  <si>
-    <t>Vũ Thị Hà</t>
-  </si>
-  <si>
-    <t>ha424210006@gmail.com</t>
-  </si>
-  <si>
-    <t>Đặng Tuấn Hùng</t>
-  </si>
-  <si>
-    <t>hung424210007@gmail.com</t>
-  </si>
-  <si>
-    <t>Quản trị Khách sạn</t>
-  </si>
-  <si>
-    <t>Đỗ Thị Lan</t>
-  </si>
-  <si>
-    <t>lan424210008@gmail.com</t>
-  </si>
-  <si>
-    <t>Quan hệ công chúng</t>
-  </si>
-  <si>
-    <t>Nguyễn Đức Minh</t>
-  </si>
-  <si>
-    <t>minh424210009@gmail.com</t>
-  </si>
-  <si>
-    <t>Trần Phương Nam</t>
-  </si>
-  <si>
-    <t>nam424210010@gmail.com</t>
-  </si>
-  <si>
     <t>523DLH01G</t>
   </si>
   <si>
-    <t>522UDPM01G</t>
+    <t>huy423210063@caodangvietmy.edu.vn</t>
   </si>
 </sst>
 </file>
@@ -199,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -217,8 +142,21 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -226,20 +164,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,351 +404,205 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+      <c r="A2" s="8">
         <v>423210063</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="9">
         <v>37205</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="9">
+        <v>45071</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11">
+        <v>424210001</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="3">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
-        <v>424210001</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="12">
+        <v>37391</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5">
-        <v>37391</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="I3" s="9">
         <v>45514</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>424210002</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="7">
-        <v>37884</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="7">
-        <v>45514</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>424210003</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="7">
-        <v>37591</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="7">
-        <v>45519</v>
-      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>424210004</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="7">
-        <v>37685</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="7">
-        <v>45519</v>
-      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>424210005</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="7">
-        <v>37456</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="7">
-        <v>45524</v>
-      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>424210006</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="3">
-        <v>37947</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="7">
-        <v>45519</v>
-      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>424210007</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="7">
-        <v>37286</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="7">
-        <v>45524</v>
-      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
-        <v>424210008</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="7">
-        <v>37723</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="7">
-        <v>45519</v>
-      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
-        <v>424210009</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="7">
-        <v>37415</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="7">
-        <v>45524</v>
-      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
-        <v>424210010</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="3">
-        <v>37919</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="7">
-        <v>45524</v>
-      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -816,6 +613,9 @@
       <formula1>"Nam,Nữ"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{1D7C9A85-AAFF-E344-B10B-2A8169F5AC03}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>